--- a/271025_Results_Med/output/m1/27102025_mod1_by_education.xlsx
+++ b/271025_Results_Med/output/m1/27102025_mod1_by_education.xlsx
@@ -672,11 +672,11 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>85 (90.4%)</t>
+          <t>85 (89.5%)</t>
         </is>
       </c>
       <c r="H8">
-        <v>0.0074</v>
+        <v>0.0107</v>
       </c>
     </row>
     <row r="9">
@@ -712,11 +712,11 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>6 (6.4%)</t>
+          <t>7 (7.4%)</t>
         </is>
       </c>
       <c r="H9">
-        <v>0.0074</v>
+        <v>0.0107</v>
       </c>
     </row>
     <row r="10">
@@ -756,7 +756,7 @@
         </is>
       </c>
       <c r="H10">
-        <v>0.0074</v>
+        <v>0.0107</v>
       </c>
     </row>
     <row r="11">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="H11">
-        <v>0.0074</v>
+        <v>0.0107</v>
       </c>
     </row>
     <row r="12">
